--- a/biology/Zoologie/Calospila_gyges/Calospila_gyges.xlsx
+++ b/biology/Zoologie/Calospila_gyges/Calospila_gyges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calospila gyges est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Calospila.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calospila gyges a été décrit par Hans Ferdinand Emil Julius Stichel en 1911 sous le nom de Polystichtis gyges[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calospila gyges a été décrit par Hans Ferdinand Emil Julius Stichel en 1911 sous le nom de Polystichtis gyges.
 Calospila gyges tavakiliani Brévignon et Gallard 1995 en Guyane.
-Noms vernaculaires
-Il se nomme Gyges Metalmark en anglais.
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Calospila gyges présente un dessus rouge avec aux antérieures un apex noir centré d'une tache bleue et une bordure noire alors que les postérieures sont rouge finement bordées de noir avec une ligne submarginale de points noirs. Le revers est beige orné de petites marques noires en lignes et d'une ligne submarginale d'ocelles noirs cerclés de clair.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Gyges Metalmark en anglais.
 </t>
         </is>
       </c>
@@ -573,10 +591,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calospila gyges présente un dessus rouge avec aux antérieures un apex noir centré d'une tache bleue et une bordure noire alors que les postérieures sont rouge finement bordées de noir avec une ligne submarginale de points noirs. Le revers est beige orné de petites marques noires en lignes et d'une ligne submarginale d'ocelles noirs cerclés de clair.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,16 +624,116 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Calospila_gyges</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calospila_gyges</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calospila gyges est présent en Amérique du Sud sous forme de deux isolats, l'un en Guyane et l'autre au Pérou[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calospila gyges est présent en Amérique du Sud sous forme de deux isolats, l'un en Guyane et l'autre au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Calospila_gyges</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calospila_gyges</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Calospila_gyges</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calospila_gyges</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
